--- a/Assets/Config/Editor/Quality.xlsx
+++ b/Assets/Config/Editor/Quality.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>编号</t>
   </si>
@@ -45,9 +45,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -103,13 +100,283 @@
   </si>
   <si>
     <t>绝无仅有</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_intArr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_stringArr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_floatArr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_boolArr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_doubleArr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|3|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|4|4|4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5|5|5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|6|6|6|6|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a|b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a|b|c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a|b|c|d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a|b|c|d|e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a|b|c|d|e|f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true|false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false|true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true|true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false|false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True|False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE|FALSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ne</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hree</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>our</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ive</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>six</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +394,22 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,9 +434,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -431,15 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,22 +739,70 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,93 +815,262 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>